--- a/Automation Tester Road Map.xlsx
+++ b/Automation Tester Road Map.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="RoadMap" sheetId="1" r:id="rId1"/>
+    <sheet name="To Do List" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>Selenium</t>
   </si>
@@ -454,16 +454,9 @@
     <t>Test Management</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing Types
-         </t>
-  </si>
-  <si>
     <t>Polymorphism- Method Overloading, Method Overriding</t>
   </si>
   <si>
-    <t>Python tutorial</t>
-  </si>
-  <si>
     <t>API Testing basic concept - Endpoint, Base URL, Parameters</t>
   </si>
   <si>
@@ -497,7 +490,67 @@
     <t>Json Parser</t>
   </si>
   <si>
-    <t>SprintBoot</t>
+    <t xml:space="preserve">Testing Types       </t>
+  </si>
+  <si>
+    <t>Manual Tesing and Documentation</t>
+  </si>
+  <si>
+    <t>Lambda Expression</t>
+  </si>
+  <si>
+    <t>Testing Frameworks and types</t>
+  </si>
+  <si>
+    <t>POJO Class</t>
+  </si>
+  <si>
+    <t>Page Object Model</t>
+  </si>
+  <si>
+    <t>Testing Templates</t>
+  </si>
+  <si>
+    <t>Design Pattern</t>
+  </si>
+  <si>
+    <t>Full Stack Developer</t>
+  </si>
+  <si>
+    <t>SpringBoot</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Lambda Function</t>
+  </si>
+  <si>
+    <t>Singlton Class</t>
+  </si>
+  <si>
+    <t>Manual Testing</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>Frameworks</t>
+  </si>
+  <si>
+    <t>POJO class</t>
+  </si>
+  <si>
+    <t>Scenarios Based Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test lead activity </t>
   </si>
 </sst>
 </file>
@@ -541,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -564,56 +617,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -628,21 +642,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -944,488 +956,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="72.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="59.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
+    <row r="7" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="2" t="s">
+    <row r="8" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="2" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="7" t="s">
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="2" t="s">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="G15" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>44</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="2" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="14"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="14"/>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+    <row r="26" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="13"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+    <row r="27" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1435,12 +1490,89 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
